--- a/out_sample_performance_shortAllow.xlsx
+++ b/out_sample_performance_shortAllow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/e0023491_u_nus_edu/Documents/A_LSP_PhD/Yr2Sm1/DSA5205/Project/DSA5205/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/e0023491_u_nus_edu/Documents/A_LSP_PhD/Yr2Sm1/DSA5205/Project/groupRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EC02C908-C8AF-464E-B3AD-383025AFFCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{EC02C908-C8AF-464E-B3AD-383025AFFCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0A65820-B1A1-4848-AA77-2C102709C669}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_sample_performance_shortAll" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,20 @@
     <sheet name="CAPM" sheetId="13" r:id="rId7"/>
     <sheet name="FF data" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -176,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -771,7 +784,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -806,6 +819,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1160,7 +1175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2500,11 +2515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="A16" sqref="A16:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,16 +2690,16 @@
       <c r="A17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="30">
         <v>4.1312809735161427</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="30">
         <v>3.6434248317473648</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="30">
         <v>1.1339004272896733</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="30">
         <v>0.27171278785421044</v>
       </c>
       <c r="F17" s="26">
@@ -2704,16 +2719,16 @@
       <c r="A18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="31">
         <v>1.5631210034639464</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="31">
         <v>0.76409227973111693</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="31">
         <v>2.0457228072164355</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="31">
         <v>5.568102825685859E-2</v>
       </c>
       <c r="F18" s="27">
@@ -2731,15 +2746,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,16 +2923,16 @@
       <c r="A17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="30">
         <v>6.3698992208269321</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="30">
         <v>3.9522771779215153</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="30">
         <v>1.6117035658356413</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="30">
         <v>0.12657457898130728</v>
       </c>
       <c r="F17" s="26">
@@ -2936,16 +2952,16 @@
       <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="30">
         <v>1.2045502321179631</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="30">
         <v>0.80389614447734592</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="30">
         <v>1.4983903584972447</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="30">
         <v>0.15350132897975774</v>
       </c>
       <c r="F18" s="26">
@@ -2965,16 +2981,16 @@
       <c r="A19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="30">
         <v>-4.8803744989332112E-2</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="30">
         <v>1.3334332585231012</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="30">
         <v>-3.660006579060935E-2</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="30">
         <v>0.97125664458376282</v>
       </c>
       <c r="F19" s="26">
@@ -2994,16 +3010,16 @@
       <c r="A20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="31">
         <v>-1.0861703282325086</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="31">
         <v>0.78488905930971964</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="31">
         <v>-1.3838520429724863</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="31">
         <v>0.1854059559069543</v>
       </c>
       <c r="F20" s="27">
@@ -3025,7 +3041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3309,7 +3325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3535,11 +3551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,7 +3835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4051,7 +4067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4144,7 +4160,7 @@
         <v>0.52880535281568897</v>
       </c>
       <c r="L2">
-        <f>K2/12*100</f>
+        <f t="shared" ref="L2:L14" si="2">K2/12*100</f>
         <v>4.406711273464075</v>
       </c>
       <c r="M2">
@@ -4198,7 +4214,7 @@
         <v>-2.23389795739131</v>
       </c>
       <c r="L3">
-        <f>K3/12*100</f>
+        <f t="shared" si="2"/>
         <v>-18.615816311594248</v>
       </c>
       <c r="M3">
@@ -4252,7 +4268,7 @@
         <v>2.1174287435090502</v>
       </c>
       <c r="L4">
-        <f>K4/12*100</f>
+        <f t="shared" si="2"/>
         <v>17.645239529242083</v>
       </c>
       <c r="M4">
@@ -4306,7 +4322,7 @@
         <v>-1.55185329890169</v>
       </c>
       <c r="L5">
-        <f>K5/12*100</f>
+        <f t="shared" si="2"/>
         <v>-12.93211082418075</v>
       </c>
       <c r="M5">
@@ -4360,11 +4376,11 @@
         <v>6.1561925507452404</v>
       </c>
       <c r="L6">
-        <f>K6/12*100</f>
+        <f t="shared" si="2"/>
         <v>51.301604589543672</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M14" si="2">L6-Q6</f>
+        <f t="shared" ref="M6:M14" si="3">L6-Q6</f>
         <v>51.291604589543674</v>
       </c>
       <c r="N6">
@@ -4414,11 +4430,11 @@
         <v>-2.77481221921337</v>
       </c>
       <c r="L7">
-        <f>K7/12*100</f>
+        <f t="shared" si="2"/>
         <v>-23.123435160111416</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-23.123435160111416</v>
       </c>
       <c r="N7">
@@ -4468,11 +4484,11 @@
         <v>2.7625159833936599</v>
       </c>
       <c r="L8">
-        <f>K8/12*100</f>
+        <f t="shared" si="2"/>
         <v>23.0209665282805</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.0209665282805</v>
       </c>
       <c r="N8">
@@ -4522,11 +4538,11 @@
         <v>2.3795145665371802</v>
       </c>
       <c r="L9">
-        <f>K9/12*100</f>
+        <f t="shared" si="2"/>
         <v>19.8292880544765</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.819288054476498</v>
       </c>
       <c r="N9">
@@ -4576,11 +4592,11 @@
         <v>-0.290811962905977</v>
       </c>
       <c r="L10">
-        <f>K10/12*100</f>
+        <f t="shared" si="2"/>
         <v>-2.4234330242164748</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.4334330242164746</v>
       </c>
       <c r="N10">
@@ -4630,11 +4646,11 @@
         <v>-0.51023026163493801</v>
       </c>
       <c r="L11">
-        <f>K11/12*100</f>
+        <f t="shared" si="2"/>
         <v>-4.2519188469578166</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.2819188469578169</v>
       </c>
       <c r="N11">
@@ -4684,11 +4700,11 @@
         <v>0.28789754571710102</v>
       </c>
       <c r="L12">
-        <f>K12/12*100</f>
+        <f t="shared" si="2"/>
         <v>2.3991462143091753</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3391462143091752</v>
       </c>
       <c r="N12">
@@ -4738,11 +4754,11 @@
         <v>0.33537020672711298</v>
       </c>
       <c r="L13">
-        <f>K13/12*100</f>
+        <f t="shared" si="2"/>
         <v>2.7947517227259415</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7147517227259415</v>
       </c>
       <c r="N13">
@@ -4792,11 +4808,11 @@
         <v>-0.29989706405653099</v>
       </c>
       <c r="L14">
-        <f>K14/12*100</f>
+        <f t="shared" si="2"/>
         <v>-2.4991422004710917</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.6891422004710916</v>
       </c>
       <c r="N14">
